--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3083932.278330998</v>
+        <v>3078192.163622783</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>28.64154760106638</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>414.0711398554625</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958795</v>
+        <v>162.9947207958794</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174318</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>46.4967884492755</v>
       </c>
       <c r="T2" t="n">
         <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,22 +743,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714824</v>
+        <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356731</v>
+        <v>66.70865780356726</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100834</v>
+        <v>59.24433418100826</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
@@ -794,7 +794,7 @@
         <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8980292624121</v>
+        <v>29.21711355962247</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>11.46792267194007</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>100.3797004617741</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>69.16319329804833</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>33.23657099140099</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>105.0839683962665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.5310119231965</v>
@@ -1028,7 +1028,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>230.2634979541061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>305.3497938902258</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>249.4237682275164</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>46.08932666651346</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.487334137518444</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>208.5694398381706</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>14.20188851094976</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.64774892544078</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>67.33742371513297</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>142.1313580769815</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>113.5103646250815</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>55.42986125998467</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>198.328268160348</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>71.74621654448626</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>50.18870648718745</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247744</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>58.40943379163119</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247744</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>270.3808622796248</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>209.6956640455286</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>173.6268892744757</v>
+        <v>131.5730391207952</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1428.38629451148</v>
+        <v>2098.581291232275</v>
       </c>
       <c r="C2" t="n">
-        <v>1428.38629451148</v>
+        <v>1729.618774291863</v>
       </c>
       <c r="D2" t="n">
-        <v>1070.12059590473</v>
+        <v>1371.353075685113</v>
       </c>
       <c r="E2" t="n">
-        <v>1041.189739742037</v>
+        <v>1371.353075685113</v>
       </c>
       <c r="F2" t="n">
-        <v>630.2038349524291</v>
+        <v>960.3671708955053</v>
       </c>
       <c r="G2" t="n">
-        <v>211.9501583307498</v>
+        <v>542.1134942738261</v>
       </c>
       <c r="H2" t="n">
         <v>211.9501583307498</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015909</v>
+        <v>138.9642385015911</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060711</v>
+        <v>397.0764468060716</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927196</v>
+        <v>769.5640925927204</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689014</v>
+        <v>1200.634914689015</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811682</v>
+        <v>1624.048915811683</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633673</v>
+        <v>1978.679112633675</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054133</v>
+        <v>2243.673398054136</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684989</v>
+        <v>2365.451310684992</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804441</v>
+        <v>2365.451310684992</v>
       </c>
       <c r="S2" t="n">
-        <v>2292.214167804441</v>
+        <v>2318.484857705926</v>
       </c>
       <c r="T2" t="n">
-        <v>2072.31060133079</v>
+        <v>2098.581291232275</v>
       </c>
       <c r="U2" t="n">
-        <v>1818.525626487292</v>
+        <v>2098.581291232275</v>
       </c>
       <c r="V2" t="n">
-        <v>1818.525626487292</v>
+        <v>2098.581291232275</v>
       </c>
       <c r="W2" t="n">
-        <v>1818.525626487292</v>
+        <v>2098.581291232275</v>
       </c>
       <c r="X2" t="n">
-        <v>1818.525626487292</v>
+        <v>2098.581291232275</v>
       </c>
       <c r="Y2" t="n">
-        <v>1428.38629451148</v>
+        <v>2098.581291232275</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>839.9224145300703</v>
+        <v>842.3222662182066</v>
       </c>
       <c r="C3" t="n">
-        <v>665.4693852489434</v>
+        <v>667.8692369370796</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4693852489434</v>
+        <v>518.9348272758283</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2319302434878</v>
+        <v>359.6973722703728</v>
       </c>
       <c r="F3" t="n">
         <v>359.6973722703728</v>
@@ -4406,55 +4406,55 @@
         <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="J3" t="n">
-        <v>47.30902621369979</v>
+        <v>108.2048630683011</v>
       </c>
       <c r="K3" t="n">
-        <v>130.1591986422598</v>
+        <v>338.9063907138133</v>
       </c>
       <c r="L3" t="n">
-        <v>501.7702691852925</v>
+        <v>710.5174612568463</v>
       </c>
       <c r="M3" t="n">
-        <v>987.4020823874814</v>
+        <v>1196.149274459035</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.59413803003</v>
+        <v>1710.341330101584</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119902</v>
+        <v>2114.310927191456</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.78188369591</v>
+        <v>2212.781883695913</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684989</v>
+        <v>2365.451310684992</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885991</v>
+        <v>2305.608548885994</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926782</v>
+        <v>2144.554785926785</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087513</v>
+        <v>1945.051103087516</v>
       </c>
       <c r="U3" t="n">
-        <v>1716.871275549723</v>
+        <v>1915.538867168706</v>
       </c>
       <c r="V3" t="n">
-        <v>1481.719167317981</v>
+        <v>1680.386758936963</v>
       </c>
       <c r="W3" t="n">
-        <v>1227.481810589779</v>
+        <v>1426.149402208761</v>
       </c>
       <c r="X3" t="n">
-        <v>1215.898050315092</v>
+        <v>1218.297902003229</v>
       </c>
       <c r="Y3" t="n">
-        <v>1008.137751550138</v>
+        <v>1010.537603238275</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>363.3287990122095</v>
+        <v>513.4454384245453</v>
       </c>
       <c r="C4" t="n">
-        <v>363.3287990122095</v>
+        <v>513.4454384245453</v>
       </c>
       <c r="D4" t="n">
         <v>363.3287990122095</v>
@@ -4476,64 +4476,64 @@
         <v>363.3287990122095</v>
       </c>
       <c r="F4" t="n">
-        <v>216.4388515142991</v>
+        <v>216.4388515142992</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="K4" t="n">
-        <v>88.805294101816</v>
+        <v>88.80529410181617</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365663</v>
+        <v>197.4326649365666</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950599</v>
+        <v>322.3541198950604</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896744</v>
+        <v>449.739838289675</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885932</v>
+        <v>551.384871688594</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546193</v>
+        <v>614.8390752546202</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546193</v>
+        <v>614.8390752546202</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546193</v>
+        <v>614.8390752546202</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546193</v>
+        <v>513.4454384245453</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546193</v>
+        <v>513.4454384245453</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546193</v>
+        <v>513.4454384245453</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546193</v>
+        <v>513.4454384245453</v>
       </c>
       <c r="W4" t="n">
-        <v>614.8390752546193</v>
+        <v>513.4454384245453</v>
       </c>
       <c r="X4" t="n">
-        <v>544.9772638424492</v>
+        <v>513.4454384245453</v>
       </c>
       <c r="Y4" t="n">
-        <v>544.9772638424492</v>
+        <v>513.4454384245453</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>884.2894331389243</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>884.2894331389243</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>498.5011805406801</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>87.51527575107252</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>2535.974978926224</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961344</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4676,13 +4676,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931989</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1309.714918859356</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C8" t="n">
-        <v>940.7524019189439</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762915</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,13 +4886,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>296.2710210862865</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>296.2710210862865</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>146.1543816739508</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>146.1543816739508</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>146.1543816739508</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>146.1543816739508</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y10" t="n">
-        <v>477.9194859165262</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5020,22 +5020,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5047,22 +5047,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1172.647446689875</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2151.197749519704</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3130.950021746351</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5074,19 +5074,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5114,19 +5114,19 @@
         <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>410.1538185715858</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C13" t="n">
-        <v>410.1538185715858</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D13" t="n">
-        <v>410.1538185715858</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1538185715858</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5229,22 +5229,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1385.724257814702</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1131.039769608815</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>841.6225995718539</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>630.9463977151159</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>410.1538185715858</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5293,13 +5293,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3944.053400686433</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4338.827767043611</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C16" t="n">
         <v>95.56103444839442</v>
@@ -5475,13 +5475,13 @@
         <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998329</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2536.15366264131</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3082.932479700092</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3585.904950579429</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4299.260038026375</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.7425750505952</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C19" t="n">
-        <v>637.8063921226883</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D19" t="n">
-        <v>487.6897527103525</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E19" t="n">
-        <v>339.7766591279594</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="G19" t="n">
         <v>192.8867116300491</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>1123.1389409875</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>902.3463618439697</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O20" t="n">
-        <v>3517.878731871643</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P20" t="n">
-        <v>4231.233819318589</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839444</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839444</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839444</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839444</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839444</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839444</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786342</v>
+        <v>482.6709267727787</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972664</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3944.053400686433</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4338.827767043611</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6065,16 +6065,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839444</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839444</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839444</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839444</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839444</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839444</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786342</v>
+        <v>653.6966825353827</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6226,52 +6226,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>3944.053400686433</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4338.827767043611</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="X28" t="n">
-        <v>391.866433243363</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.0738540998329</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
-        <v>3944.053400686433</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4338.827767043611</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3767.399463981557</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>3598.46328105365</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>3525.992355251139</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>3378.079261668745</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>3231.189314170835</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>4688.221265177249</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>4466.454649746775</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>4466.454649746775</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>4466.454649746775</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>4177.037479709814</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>3949.047928811797</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>3949.047928811797</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6703,25 +6703,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1069.293752345675</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2047.844055175504</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N32" t="n">
-        <v>3027.596327402151</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O32" t="n">
-        <v>3907.560977731605</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P32" t="n">
-        <v>4302.335344088783</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,64 +6755,64 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3281.884977289206</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>3281.884977289206</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>3281.884977289206</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>3281.884977289206</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>3231.189314170835</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>3063.486477545554</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>4274.768765573601</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>4274.768765573601</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>4020.084277367714</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>3730.667107330753</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X34" t="n">
-        <v>3502.677556432736</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y34" t="n">
-        <v>3281.884977289206</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551631</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
@@ -6943,46 +6943,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2949.638265046256</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3496.417082105038</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107238</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
         <v>487.9678785494859</v>
@@ -7007,13 +7007,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>452.5901955154781</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>452.5901955154781</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>302.4735561031423</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>154.5604625207492</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>154.5604625207492</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>154.5604625207492</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>154.5604625207492</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>901.3723255570255</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X37" t="n">
-        <v>673.3827746590082</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y37" t="n">
-        <v>452.5901955154781</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="38">
@@ -7153,67 +7153,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972664</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1069.293752345675</v>
+        <v>1404.507041060941</v>
       </c>
       <c r="M38" t="n">
-        <v>2047.844055175504</v>
+        <v>2383.057343890769</v>
       </c>
       <c r="N38" t="n">
-        <v>3027.596327402151</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O38" t="n">
-        <v>3907.560977731605</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
         <v>487.9678785494859</v>
@@ -7244,13 +7244,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7371,13 +7371,13 @@
         <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7396,10 +7396,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7408,49 +7408,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>685.1208104866394</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1549.639626139994</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M41" t="n">
-        <v>2528.189928969823</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N41" t="n">
-        <v>3507.942201196469</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O41" t="n">
-        <v>4010.914672075806</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7487,7 +7487,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839444</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839444</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839444</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839444</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7608,13 +7608,13 @@
         <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>787.2898093546221</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.9043113423046</v>
+        <v>559.3002584566048</v>
       </c>
     </row>
     <row r="44">
@@ -7642,7 +7642,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
@@ -7651,25 +7651,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>685.1208104866384</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1549.639626139993</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2528.189928969822</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>3507.942201196468</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
         <v>487.9678785494859</v>
@@ -7718,7 +7718,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
         <v>95.56103444839442</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1823.441406386729</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1601.674790956255</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1312.571924081898</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1057.887435876012</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>768.470265839051</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>540.4807149410336</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>64.58008902262989</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>115.1204337631322</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>107.6070190727128</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719077</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>104.3976710547477</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8704,7 +8704,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>67.53663776704306</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>107.5040408147563</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>315.167921710932</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.2173930448442</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>67.53663776704209</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>133.253057640026</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>67.53663776704306</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>374.169394802195</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>104.3976710547479</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10591,25 +10591,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>77.35795430877181</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>338.5992815305711</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10837,16 +10837,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>104.3976710547485</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,10 +11062,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>67.53663776704343</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>67.53663776704252</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>178.3446460444189</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>17.14021555086657</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.3211098256413</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.18423125649652</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>98.68838454389525</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23940,10 +23940,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>37.70062210495576</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24144,10 +24144,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>170.2797941290525</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>27.38138722868914</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>76.8692564737261</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>95.2323415357438</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>37.94298661820689</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.14213605696625</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>76.82733429106239</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696617</v>
+        <v>58.19598621064674</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.50438464</v>
+        <v>697885.5043846403</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
-        <v>675039.0377078711</v>
+        <v>675039.0377078714</v>
       </c>
       <c r="F2" t="n">
+        <v>675039.0377078714</v>
+      </c>
+      <c r="G2" t="n">
+        <v>675039.0377078714</v>
+      </c>
+      <c r="H2" t="n">
+        <v>675039.0377078715</v>
+      </c>
+      <c r="I2" t="n">
+        <v>675039.0377078713</v>
+      </c>
+      <c r="J2" t="n">
         <v>675039.0377078716</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>675039.0377078719</v>
+      </c>
+      <c r="L2" t="n">
+        <v>675039.0377078719</v>
+      </c>
+      <c r="M2" t="n">
+        <v>675039.0377078719</v>
+      </c>
+      <c r="N2" t="n">
         <v>675039.0377078716</v>
-      </c>
-      <c r="H2" t="n">
-        <v>675039.0377078716</v>
-      </c>
-      <c r="I2" t="n">
-        <v>675039.0377078718</v>
-      </c>
-      <c r="J2" t="n">
-        <v>675039.0377078714</v>
-      </c>
-      <c r="K2" t="n">
-        <v>675039.0377078714</v>
-      </c>
-      <c r="L2" t="n">
-        <v>675039.0377078714</v>
-      </c>
-      <c r="M2" t="n">
-        <v>675039.0377078718</v>
-      </c>
-      <c r="N2" t="n">
-        <v>675039.0377078714</v>
       </c>
       <c r="O2" t="n">
         <v>675039.0377078716</v>
       </c>
       <c r="P2" t="n">
-        <v>675039.037707872</v>
+        <v>675039.0377078714</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106477</v>
+        <v>493391.6844106484</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446947</v>
+        <v>91792.63957446872</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832158</v>
+        <v>154726.535683216</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220087</v>
+        <v>21342.09858220073</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>4.850638409455616e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226943.9547659809</v>
+        <v>226943.9547659808</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26435,13 +26435,13 @@
         <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="J4" t="n">
         <v>25090.72367499381</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25090.72367499382</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499382</v>
@@ -26450,16 +26450,16 @@
         <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499377</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499378</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.1061314012</v>
+        <v>76261.10613140126</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26487,10 +26487,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26502,13 +26502,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98711.24092338979</v>
+        <v>-98711.2409233902</v>
       </c>
       <c r="C6" t="n">
-        <v>322169.2808190301</v>
+        <v>322169.2808190316</v>
       </c>
       <c r="D6" t="n">
-        <v>413961.9203935</v>
+        <v>413961.9203935002</v>
       </c>
       <c r="E6" t="n">
-        <v>-173812.6182142431</v>
+        <v>-174484.5731165007</v>
       </c>
       <c r="F6" t="n">
-        <v>553564.7957791642</v>
+        <v>552892.8408769061</v>
       </c>
       <c r="G6" t="n">
-        <v>553564.7957791642</v>
+        <v>552892.8408769061</v>
       </c>
       <c r="H6" t="n">
-        <v>553564.7957791642</v>
+        <v>552892.8408769062</v>
       </c>
       <c r="I6" t="n">
-        <v>553564.7957791642</v>
+        <v>552892.8408769059</v>
       </c>
       <c r="J6" t="n">
-        <v>398838.2600959481</v>
+        <v>398166.3051936902</v>
       </c>
       <c r="K6" t="n">
-        <v>532222.6971969631</v>
+        <v>531550.7422947058</v>
       </c>
       <c r="L6" t="n">
-        <v>553564.7957791639</v>
+        <v>552892.8408769065</v>
       </c>
       <c r="M6" t="n">
-        <v>423922.4809402196</v>
+        <v>423250.5260379616</v>
       </c>
       <c r="N6" t="n">
-        <v>553564.7957791639</v>
+        <v>552892.8408769063</v>
       </c>
       <c r="O6" t="n">
-        <v>553564.7957791642</v>
+        <v>552892.8408769064</v>
       </c>
       <c r="P6" t="n">
-        <v>553564.7957791645</v>
+        <v>552892.8408769061</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435495</v>
+        <v>306.35991784355</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712481</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435495</v>
+        <v>306.35991784355</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353724</v>
+        <v>71.38374637353661</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712481</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330823</v>
+        <v>82.92444508330769</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712471</v>
+        <v>591.3628276712481</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330823</v>
+        <v>82.92444508330769</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712481</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330823</v>
+        <v>82.92444508330769</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>353.2888224711954</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174304</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164569</v>
+        <v>134.4582494671813</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27463,13 +27463,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>196.6809157027896</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>194.3050625315374</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,10 +27557,10 @@
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514147</v>
+        <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>54.3008017384878</v>
+        <v>54.30080173848772</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731842</v>
+        <v>39.90169565731834</v>
       </c>
       <c r="R4" t="n">
         <v>152.4531265631663</v>
       </c>
       <c r="S4" t="n">
-        <v>214.3888609467086</v>
+        <v>114.0091604849344</v>
       </c>
       <c r="T4" t="n">
         <v>225.5851113727656</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>156.5464620909888</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>380.547599029394</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>281.1539702597871</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>56.01837628787163</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>49.33324773045712</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>164.3604017932786</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>110.0815621752817</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>116.0611043592037</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30000,13 +30000,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.246344054202662e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-6.06329801181952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30288,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.23159765967256</v>
+        <v>1.231597659672562</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212161</v>
+        <v>12.61309953212163</v>
       </c>
       <c r="I2" t="n">
-        <v>47.4811687745264</v>
+        <v>47.48116877452649</v>
       </c>
       <c r="J2" t="n">
-        <v>104.530311867634</v>
+        <v>104.5303118676342</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015735</v>
+        <v>156.6638408015738</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787776</v>
+        <v>194.355347678778</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589795</v>
+        <v>216.2577725589799</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095242</v>
+        <v>219.7570494095246</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811552</v>
+        <v>207.5103501811555</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579888</v>
+        <v>177.1052829579891</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709652</v>
+        <v>132.9986917709655</v>
       </c>
       <c r="R2" t="n">
-        <v>77.3643464894065</v>
+        <v>77.36434648940664</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978848</v>
+        <v>28.06503166978854</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216632</v>
+        <v>5.391318755216643</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380475</v>
+        <v>0.09852781277380494</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540498</v>
+        <v>0.658962842154051</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014114</v>
+        <v>6.364193765014125</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784777</v>
+        <v>22.68797504784781</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403679</v>
+        <v>62.25753764403691</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683581</v>
+        <v>106.4080480683583</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966502</v>
+        <v>143.0787521966504</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247344</v>
+        <v>166.9661552247347</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302325</v>
+        <v>171.3852525302328</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382927</v>
+        <v>156.784023238293</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723817</v>
+        <v>125.8330009723819</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338362</v>
+        <v>84.11602876338378</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163479</v>
+        <v>40.91349997163487</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422105</v>
+        <v>12.23994577422107</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945489</v>
+        <v>2.656082683945494</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276645</v>
+        <v>0.04335281856276653</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.552452310865417</v>
+        <v>0.552452310865418</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967075</v>
+        <v>4.911803272967084</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584364</v>
+        <v>16.61374767584367</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818498</v>
+        <v>39.05837837818505</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509116</v>
+        <v>64.18491393509127</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448209</v>
+        <v>82.13459174448225</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502168</v>
+        <v>86.59941087502183</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361428</v>
+        <v>84.54027044361443</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395915</v>
+        <v>78.0866229939593</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230459</v>
+        <v>66.81659585230472</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437596</v>
+        <v>46.26034759437605</v>
       </c>
       <c r="R4" t="n">
-        <v>24.8402648140032</v>
+        <v>24.84026481400324</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263672</v>
+        <v>9.627737090263691</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515872</v>
+        <v>2.360478055515876</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084096</v>
+        <v>0.03013376241084102</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302149</v>
+        <v>92.58102251302168</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277577</v>
+        <v>260.719402327758</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592409</v>
+        <v>376.2501472592412</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245393</v>
+        <v>435.4250728245397</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249174</v>
+        <v>427.6909102249178</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222138</v>
+        <v>358.2123200222142</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742019</v>
+        <v>267.6709953742022</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564204</v>
+        <v>123.0079925564207</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>61.51094631777905</v>
       </c>
       <c r="K3" t="n">
-        <v>83.68704285713129</v>
+        <v>233.0318461065779</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202351</v>
+        <v>375.3647177202354</v>
       </c>
       <c r="M3" t="n">
-        <v>490.537185052716</v>
+        <v>490.5371850527163</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904527</v>
+        <v>519.3859147904529</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705778</v>
+        <v>408.0500980705781</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979886</v>
+        <v>99.46561263076445</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132112</v>
+        <v>154.2115424132114</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920831</v>
+        <v>41.91542210920842</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047982</v>
+        <v>109.7246170047984</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368623</v>
+        <v>126.1832878368624</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228429</v>
+        <v>128.672442822843</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079988</v>
+        <v>102.671750907999</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719808</v>
+        <v>64.0951551171982</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35415,7 +35415,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>559.9877854470799</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35424,7 +35424,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35433,7 +35433,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35661,16 +35661,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>318.3309425707625</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>358.2983456184758</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36138,13 +36138,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>713.9299079303039</v>
       </c>
       <c r="Q20" t="n">
-        <v>427.0116978485636</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>318.3309425707616</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36439,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>384.0473624437454</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>318.3309425707625</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -37071,28 +37071,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>882.2223956904141</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>355.1919758584674</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>585.4109551969909</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>794.1893959229033</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
@@ -37557,16 +37557,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>503.1596572741203</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,10 +37782,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>404.7279243224439</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M41" t="n">
         <v>988.4346493230593</v>
@@ -37794,7 +37794,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37803,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>404.727924322443</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
@@ -38031,7 +38031,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38040,7 +38040,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3078192.163622783</v>
+        <v>3081597.654747231</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359933</v>
+        <v>6663746.095359932</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>414.0711398554625</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958794</v>
+        <v>75.77851773631851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>46.4967884492755</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>112.5835468933072</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714823</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356726</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100826</v>
+        <v>59.24433418100853</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
@@ -794,7 +794,7 @@
         <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>29.21711355962247</v>
+        <v>225.8980292624121</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>107.8932231663238</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.4385270475933</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>100.3797004617741</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>33.23657099140099</v>
+        <v>132.6836993573465</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1028,7 +1028,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>59.7268375758684</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>354.752216257426</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>249.4237682275164</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>30.60408762095418</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292783</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.487334137518444</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881779</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>14.20188851094976</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>66.44957347303814</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>67.33742371513297</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>142.1313580769815</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>4.788460163635031</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>55.42986125998467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>198.328268160348</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>69.9696990078334</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>74.75769145492404</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3322,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.75769145492404</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>123.7958024812582</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>270.3808622796248</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>209.6956640455286</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>113.5103646250816</v>
       </c>
     </row>
     <row r="44">
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>131.5730391207952</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2098.581291232275</v>
+        <v>918.0146778344067</v>
       </c>
       <c r="C2" t="n">
-        <v>1729.618774291863</v>
+        <v>549.0521608939951</v>
       </c>
       <c r="D2" t="n">
-        <v>1371.353075685113</v>
+        <v>549.0521608939951</v>
       </c>
       <c r="E2" t="n">
-        <v>1371.353075685113</v>
+        <v>549.0521608939951</v>
       </c>
       <c r="F2" t="n">
-        <v>960.3671708955053</v>
+        <v>542.1066601447916</v>
       </c>
       <c r="G2" t="n">
-        <v>542.1134942738261</v>
+        <v>123.8529835231123</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307498</v>
+        <v>123.8529835231123</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369984</v>
+        <v>47.30902621369966</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015911</v>
+        <v>138.9642385015904</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060716</v>
+        <v>397.07644680607</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927204</v>
+        <v>769.5640925927175</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689015</v>
+        <v>1200.63491468901</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811683</v>
+        <v>1624.048915811678</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633675</v>
+        <v>1978.679112633668</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054136</v>
+        <v>2243.673398054128</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684992</v>
+        <v>2365.451310684983</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.451310684992</v>
+        <v>2365.451310684983</v>
       </c>
       <c r="S2" t="n">
-        <v>2318.484857705926</v>
+        <v>2365.451310684983</v>
       </c>
       <c r="T2" t="n">
-        <v>2098.581291232275</v>
+        <v>2365.451310684983</v>
       </c>
       <c r="U2" t="n">
-        <v>2098.581291232275</v>
+        <v>2365.451310684983</v>
       </c>
       <c r="V2" t="n">
-        <v>2098.581291232275</v>
+        <v>2034.388423341412</v>
       </c>
       <c r="W2" t="n">
-        <v>2098.581291232275</v>
+        <v>1681.619768071298</v>
       </c>
       <c r="X2" t="n">
-        <v>2098.581291232275</v>
+        <v>1308.154009810218</v>
       </c>
       <c r="Y2" t="n">
-        <v>2098.581291232275</v>
+        <v>918.0146778344067</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.3222662182066</v>
+        <v>643.6546745992175</v>
       </c>
       <c r="C3" t="n">
-        <v>667.8692369370796</v>
+        <v>469.2016453180905</v>
       </c>
       <c r="D3" t="n">
-        <v>518.9348272758283</v>
+        <v>320.2672356568393</v>
       </c>
       <c r="E3" t="n">
-        <v>359.6973722703728</v>
+        <v>161.0297806513838</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6973722703728</v>
+        <v>161.0297806513838</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6321658854671</v>
+        <v>47.30902621369966</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435658</v>
+        <v>47.30902621369966</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369984</v>
+        <v>47.30902621369966</v>
       </c>
       <c r="J3" t="n">
-        <v>108.2048630683011</v>
+        <v>108.2048630683005</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138133</v>
+        <v>338.906390713812</v>
       </c>
       <c r="L3" t="n">
-        <v>710.5174612568463</v>
+        <v>710.5174612568441</v>
       </c>
       <c r="M3" t="n">
-        <v>1196.149274459035</v>
+        <v>1140.071509376557</v>
       </c>
       <c r="N3" t="n">
-        <v>1710.341330101584</v>
+        <v>1654.263565019104</v>
       </c>
       <c r="O3" t="n">
-        <v>2114.310927191456</v>
+        <v>2058.233162108975</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695913</v>
+        <v>2365.451310684983</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684992</v>
+        <v>2365.451310684983</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885994</v>
+        <v>2305.608548885984</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926785</v>
+        <v>2144.554785926775</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087516</v>
+        <v>1945.051103087507</v>
       </c>
       <c r="U3" t="n">
-        <v>1915.538867168706</v>
+        <v>1716.871275549717</v>
       </c>
       <c r="V3" t="n">
-        <v>1680.386758936963</v>
+        <v>1481.719167317974</v>
       </c>
       <c r="W3" t="n">
-        <v>1426.149402208761</v>
+        <v>1227.481810589772</v>
       </c>
       <c r="X3" t="n">
-        <v>1218.297902003229</v>
+        <v>1019.630310384239</v>
       </c>
       <c r="Y3" t="n">
-        <v>1010.537603238275</v>
+        <v>811.8700116192856</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.4454384245453</v>
+        <v>325.4219052176564</v>
       </c>
       <c r="C4" t="n">
-        <v>513.4454384245453</v>
+        <v>325.4219052176564</v>
       </c>
       <c r="D4" t="n">
-        <v>363.3287990122095</v>
+        <v>325.4219052176564</v>
       </c>
       <c r="E4" t="n">
-        <v>363.3287990122095</v>
+        <v>216.438851514299</v>
       </c>
       <c r="F4" t="n">
-        <v>216.4388515142992</v>
+        <v>216.438851514299</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369984</v>
+        <v>47.30902621369966</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369984</v>
+        <v>47.30902621369966</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369984</v>
+        <v>47.30902621369966</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369984</v>
+        <v>47.30902621369966</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181617</v>
+        <v>88.80529410181559</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365666</v>
+        <v>197.4326649365655</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950604</v>
+        <v>322.3541198950587</v>
       </c>
       <c r="N4" t="n">
-        <v>449.739838289675</v>
+        <v>449.7398382896728</v>
       </c>
       <c r="O4" t="n">
-        <v>551.384871688594</v>
+        <v>551.3848716885913</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546202</v>
+        <v>614.839075254617</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546202</v>
+        <v>614.839075254617</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546202</v>
+        <v>614.839075254617</v>
       </c>
       <c r="S4" t="n">
-        <v>513.4454384245453</v>
+        <v>614.839075254617</v>
       </c>
       <c r="T4" t="n">
-        <v>513.4454384245453</v>
+        <v>614.839075254617</v>
       </c>
       <c r="U4" t="n">
-        <v>513.4454384245453</v>
+        <v>614.839075254617</v>
       </c>
       <c r="V4" t="n">
-        <v>513.4454384245453</v>
+        <v>614.839075254617</v>
       </c>
       <c r="W4" t="n">
-        <v>513.4454384245453</v>
+        <v>325.4219052176564</v>
       </c>
       <c r="X4" t="n">
-        <v>513.4454384245453</v>
+        <v>325.4219052176564</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.4454384245453</v>
+        <v>325.4219052176564</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1253.251950079336</v>
+        <v>1448.576038264086</v>
       </c>
       <c r="C5" t="n">
-        <v>884.2894331389243</v>
+        <v>1079.613521323674</v>
       </c>
       <c r="D5" t="n">
-        <v>884.2894331389243</v>
+        <v>1079.613521323674</v>
       </c>
       <c r="E5" t="n">
-        <v>498.5011805406801</v>
+        <v>1079.613521323674</v>
       </c>
       <c r="F5" t="n">
-        <v>87.51527575107252</v>
+        <v>668.6276165340664</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1838.715370239897</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.851790143458</v>
+        <v>1448.576038264086</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,19 +4646,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4676,13 +4676,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837985</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858881</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2310.5492509541</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C8" t="n">
-        <v>1941.586734013689</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1583.321035406938</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1197.532782808694</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>786.5468780190865</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690178</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749767</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143016</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551638</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001603</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089275</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903279</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232734</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.49719767968</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188668</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419723</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946818</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.78330633104</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604877</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261306</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991192</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730112</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.8161967543</v>
       </c>
     </row>
     <row r="12">
@@ -5096,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
         <v>794.2006632320243</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="C13" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="D13" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5226,25 +5226,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>391.866433243363</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1797.117834600131</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2330.649739272056</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2877.428556330838</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660293</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107239</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862921</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419723</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468569</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390121</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193595</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5378,7 +5378,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5387,16 +5387,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.4972173763014</v>
+        <v>432.2000540015824</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5469,19 +5469,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W16" t="n">
-        <v>894.9278122480886</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X16" t="n">
-        <v>666.9382613500712</v>
+        <v>680.9693001177193</v>
       </c>
       <c r="Y16" t="n">
-        <v>446.1456822065411</v>
+        <v>613.8485188318222</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>2749.9835782646</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,25 +5752,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1963.918173296941</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867999</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N20" t="n">
-        <v>2883.993034926781</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O20" t="n">
-        <v>3763.957685256236</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862919</v>
@@ -5779,25 +5779,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1220.870226851287</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>931.4530568143261</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>703.4635059163088</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>482.6709267727787</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5995,46 +5995,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1963.918173296941</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6071,10 +6071,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.6966825353827</v>
+        <v>675.7429179653792</v>
       </c>
       <c r="C25" t="n">
-        <v>653.6966825353827</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D25" t="n">
-        <v>653.6966825353827</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F25" t="n">
         <v>506.8067350374723</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X25" t="n">
-        <v>653.6966825353827</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y25" t="n">
-        <v>653.6966825353827</v>
+        <v>680.5797464134954</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>877.1197344942216</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1734.57685067423</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1479.892362468343</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1479.892362468343</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>1279.560778467991</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1058.768199324461</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6457,34 +6457,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>416.1091927888621</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1070.832524924162</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.86673817257</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2055.398642844495</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903277</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>333.9403347179516</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6657,16 +6657,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423046</v>
+        <v>515.5887995481913</v>
       </c>
     </row>
     <row r="32">
@@ -6694,7 +6694,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6703,19 +6703,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2883.993034926781</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
         <v>4470.748294107237</v>
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
         <v>487.9678785494859</v>
@@ -6770,7 +6770,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F34" t="n">
         <v>95.56103444839442</v>
@@ -6934,49 +6934,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.0738540998329</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7162,16 +7162,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
@@ -7180,46 +7180,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1404.507041060941</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M38" t="n">
-        <v>2383.057343890769</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N38" t="n">
-        <v>3362.809616117416</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O38" t="n">
-        <v>3865.782086996753</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7362,22 +7362,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1639.611316798946</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1350.50844992459</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>1095.823961718703</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>806.4067916817419</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>578.4172407837245</v>
       </c>
     </row>
     <row r="41">
@@ -7390,19 +7390,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.3002584566048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>787.2898093546221</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X43" t="n">
-        <v>559.3002584566048</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y43" t="n">
-        <v>559.3002584566048</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7630,19 +7630,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
@@ -7654,13 +7654,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
         <v>95.56103444839442</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1823.441406386729</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1601.674790956255</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1312.571924081898</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>1057.887435876012</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>768.470265839051</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
-        <v>540.4807149410336</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>540.4807149410336</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>409.0608565959842</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>107.6070190727128</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>55.86574532263828</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>288.047814956105</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,22 +8929,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>411.0304280899019</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>231.5010718068643</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>410.4190035206666</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>315.167921710932</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>410.4190035206666</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>132.9990175570123</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,22 +10351,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>374.169394802195</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>338.5992815305711</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10837,13 +10837,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.3446460444189</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.3211098256413</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>152.1350798790567</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>98.68838454389525</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>37.70062210495576</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24144,10 +24144,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>175.0435200183023</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>170.2797941290525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24651,22 +24651,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>27.38138722868914</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>97.27712209079444</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>70.6633565680072</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.0742887270133</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>95.753146794911</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>76.82733429106239</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>105.0742887270132</v>
       </c>
     </row>
     <row r="44">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>58.19598621064674</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846403</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
-        <v>675039.0377078714</v>
+        <v>675039.0377078718</v>
       </c>
       <c r="F2" t="n">
         <v>675039.0377078714</v>
       </c>
       <c r="G2" t="n">
+        <v>675039.0377078716</v>
+      </c>
+      <c r="H2" t="n">
+        <v>675039.0377078719</v>
+      </c>
+      <c r="I2" t="n">
+        <v>675039.0377078715</v>
+      </c>
+      <c r="J2" t="n">
         <v>675039.0377078714</v>
       </c>
-      <c r="H2" t="n">
-        <v>675039.0377078715</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>675039.0377078712</v>
+      </c>
+      <c r="L2" t="n">
+        <v>675039.0377078714</v>
+      </c>
+      <c r="M2" t="n">
+        <v>675039.0377078712</v>
+      </c>
+      <c r="N2" t="n">
+        <v>675039.0377078714</v>
+      </c>
+      <c r="O2" t="n">
         <v>675039.0377078713</v>
       </c>
-      <c r="J2" t="n">
-        <v>675039.0377078716</v>
-      </c>
-      <c r="K2" t="n">
-        <v>675039.0377078719</v>
-      </c>
-      <c r="L2" t="n">
-        <v>675039.0377078719</v>
-      </c>
-      <c r="M2" t="n">
-        <v>675039.0377078719</v>
-      </c>
-      <c r="N2" t="n">
-        <v>675039.0377078716</v>
-      </c>
-      <c r="O2" t="n">
-        <v>675039.0377078716</v>
-      </c>
       <c r="P2" t="n">
-        <v>675039.0377078714</v>
+        <v>675039.0377078713</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106484</v>
+        <v>493391.6844106458</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446872</v>
+        <v>91792.63957447128</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.535683216</v>
+        <v>154726.5356832154</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220073</v>
+        <v>21342.09858220128</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226943.9547659808</v>
+        <v>226943.9547659815</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26426,22 +26426,22 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499374</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499376</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499377</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499382</v>
@@ -26450,13 +26450,13 @@
         <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="N4" t="n">
+        <v>25090.72367499378</v>
+      </c>
+      <c r="O4" t="n">
         <v>25090.72367499382</v>
-      </c>
-      <c r="N4" t="n">
-        <v>25090.72367499382</v>
-      </c>
-      <c r="O4" t="n">
-        <v>25090.72367499378</v>
       </c>
       <c r="P4" t="n">
         <v>25090.72367499382</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140126</v>
+        <v>76261.10613140109</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26502,13 +26502,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="N5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="O5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="N5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="O5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98711.2409233902</v>
+        <v>-98711.2409233879</v>
       </c>
       <c r="C6" t="n">
-        <v>322169.2808190316</v>
+        <v>322169.280819029</v>
       </c>
       <c r="D6" t="n">
-        <v>413961.9203935002</v>
+        <v>413961.9203935001</v>
       </c>
       <c r="E6" t="n">
-        <v>-174484.5731165007</v>
+        <v>-173879.8137044683</v>
       </c>
       <c r="F6" t="n">
-        <v>552892.8408769061</v>
+        <v>553497.6002889381</v>
       </c>
       <c r="G6" t="n">
-        <v>552892.8408769061</v>
+        <v>553497.6002889384</v>
       </c>
       <c r="H6" t="n">
-        <v>552892.8408769062</v>
+        <v>553497.6002889387</v>
       </c>
       <c r="I6" t="n">
-        <v>552892.8408769059</v>
+        <v>553497.6002889383</v>
       </c>
       <c r="J6" t="n">
-        <v>398166.3051936902</v>
+        <v>398771.0646057227</v>
       </c>
       <c r="K6" t="n">
-        <v>531550.7422947058</v>
+        <v>532155.5017067366</v>
       </c>
       <c r="L6" t="n">
-        <v>552892.8408769065</v>
+        <v>553497.6002889381</v>
       </c>
       <c r="M6" t="n">
-        <v>423250.5260379616</v>
+        <v>423855.2854499931</v>
       </c>
       <c r="N6" t="n">
-        <v>552892.8408769063</v>
+        <v>553497.6002889383</v>
       </c>
       <c r="O6" t="n">
-        <v>552892.8408769064</v>
+        <v>553497.600288938</v>
       </c>
       <c r="P6" t="n">
-        <v>552892.8408769061</v>
+        <v>553497.600288938</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.35991784355</v>
+        <v>306.359917843548</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712481</v>
+        <v>591.3628276712458</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="F4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.35991784355</v>
+        <v>306.359917843548</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353661</v>
+        <v>71.38374637353866</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712481</v>
+        <v>591.3628276712458</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330769</v>
+        <v>82.92444508330982</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503751</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712481</v>
+        <v>591.3628276712458</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330769</v>
+        <v>82.92444508330982</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712481</v>
+        <v>591.3628276712458</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330769</v>
+        <v>82.92444508330982</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503751</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836456</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>87.21620305956124</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174304</v>
+        <v>72.50477145174355</v>
       </c>
       <c r="S2" t="n">
-        <v>134.4582494671813</v>
+        <v>180.955037916457</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
         <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>24.10100742774935</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.70865780356741</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>196.6809157027896</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>38.54073948024538</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514146</v>
+        <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848772</v>
+        <v>54.30080173848798</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731834</v>
+        <v>39.90169565731863</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631663</v>
+        <v>152.4531265631664</v>
       </c>
       <c r="S4" t="n">
-        <v>114.0091604849344</v>
+        <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
         <v>225.5851113727656</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>380.547599029394</v>
+        <v>281.1004706634485</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10.52067551358152</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>164.3604017932786</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>116.0611043592037</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-2.025899448199198e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-1.701950758960103e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672562</v>
+        <v>1.231597659672554</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212163</v>
+        <v>12.61309953212155</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452649</v>
+        <v>47.48116877452618</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676342</v>
+        <v>104.5303118676335</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015738</v>
+        <v>156.6638408015728</v>
       </c>
       <c r="L2" t="n">
-        <v>194.355347678778</v>
+        <v>194.3553476787767</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589799</v>
+        <v>216.2577725589785</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095246</v>
+        <v>219.7570494095232</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811555</v>
+        <v>207.5103501811542</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579891</v>
+        <v>177.105282957988</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709655</v>
+        <v>132.9986917709646</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940664</v>
+        <v>77.36434648940613</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978854</v>
+        <v>28.06503166978835</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216643</v>
+        <v>5.391318755216608</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380494</v>
+        <v>0.0985278127738043</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.658962842154051</v>
+        <v>0.6589628421540468</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014125</v>
+        <v>6.364193765014084</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784781</v>
+        <v>22.68797504784767</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403691</v>
+        <v>62.2575376440365</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683583</v>
+        <v>106.4080480683576</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966504</v>
+        <v>143.0787521966495</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247347</v>
+        <v>166.9661552247337</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302328</v>
+        <v>171.3852525302317</v>
       </c>
       <c r="O3" t="n">
-        <v>156.784023238293</v>
+        <v>156.784023238292</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723819</v>
+        <v>125.8330009723811</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338378</v>
+        <v>84.11602876338324</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163487</v>
+        <v>40.9134999716346</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422107</v>
+        <v>12.23994577422099</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945494</v>
+        <v>2.656082683945477</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276653</v>
+        <v>0.04335281856276625</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.552452310865418</v>
+        <v>0.5524523108654145</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967084</v>
+        <v>4.911803272967052</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584367</v>
+        <v>16.61374767584356</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818505</v>
+        <v>39.0583783781848</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509127</v>
+        <v>64.18491393509086</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448225</v>
+        <v>82.13459174448172</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502183</v>
+        <v>86.59941087502126</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361443</v>
+        <v>84.54027044361389</v>
       </c>
       <c r="O4" t="n">
-        <v>78.0866229939593</v>
+        <v>78.08662299395878</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230472</v>
+        <v>66.81659585230427</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437605</v>
+        <v>46.26034759437575</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400324</v>
+        <v>24.84026481400308</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263691</v>
+        <v>9.627737090263627</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515876</v>
+        <v>2.360478055515861</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084102</v>
+        <v>0.03013376241084082</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302168</v>
+        <v>92.58102251302101</v>
       </c>
       <c r="K2" t="n">
-        <v>260.719402327758</v>
+        <v>260.7194023277569</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592412</v>
+        <v>376.25014725924</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245397</v>
+        <v>435.4250728245382</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249178</v>
+        <v>427.6909102249164</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222142</v>
+        <v>358.2123200222128</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742022</v>
+        <v>267.6709953742011</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564207</v>
+        <v>123.0079925564198</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777905</v>
+        <v>61.51094631777865</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065779</v>
+        <v>233.0318461065772</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202354</v>
+        <v>375.3647177202345</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527163</v>
+        <v>433.8929778986995</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904529</v>
+        <v>519.3859147904519</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705781</v>
+        <v>408.0500980705771</v>
       </c>
       <c r="P3" t="n">
-        <v>99.46561263076445</v>
+        <v>310.321362197988</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132114</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920842</v>
+        <v>41.91542210920801</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047984</v>
+        <v>109.7246170047979</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368624</v>
+        <v>126.1832878368619</v>
       </c>
       <c r="N4" t="n">
-        <v>128.672442822843</v>
+        <v>128.6724428228425</v>
       </c>
       <c r="O4" t="n">
-        <v>102.671750907999</v>
+        <v>102.6717509079985</v>
       </c>
       <c r="P4" t="n">
-        <v>64.0951551171982</v>
+        <v>64.09515511719776</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>840.3496503690164</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>866.6205424822341</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>739.5540726950834</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>866.0091179129988</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36135,13 +36135,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>713.9299079303039</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36363,7 +36363,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>866.0091179129988</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36372,7 +36372,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36381,7 +36381,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>323.7860185257249</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>882.2223956904141</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>794.1893959229033</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
@@ -37557,13 +37557,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -38022,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M44" t="n">
         <v>988.4346493230593</v>
@@ -38031,7 +38031,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
